--- a/predict_borehole.xlsx
+++ b/predict_borehole.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Upper Depth</t>
+  </si>
+  <si>
+    <t>Lower Depth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,279 +379,487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Upper Depth</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Depth</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0.02</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C2">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10.52</v>
+      </c>
+      <c r="C3">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11.08</v>
+      </c>
+      <c r="C4">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>13.59</v>
+      </c>
+      <c r="C5">
+        <v>16.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>19.76</v>
+      </c>
+      <c r="C6">
+        <v>25.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>16.67</v>
+      </c>
+      <c r="C7">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>17.54</v>
+      </c>
+      <c r="C8">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B9">
+        <v>18.89</v>
+      </c>
+      <c r="C9">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>25.46</v>
+      </c>
+      <c r="C10">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>32.47</v>
+      </c>
+      <c r="C11">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B12">
+        <v>27.12</v>
+      </c>
+      <c r="C12">
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B13">
+        <v>28.18</v>
+      </c>
+      <c r="C13">
+        <v>32.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>37.49</v>
+      </c>
+      <c r="C14">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>38.94</v>
+      </c>
+      <c r="C15">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>41.62</v>
+      </c>
+      <c r="C16">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>40.62</v>
+      </c>
+      <c r="C17">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>44.92</v>
+      </c>
+      <c r="C18">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>47.65</v>
+      </c>
+      <c r="C19">
+        <v>48.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>48.68</v>
+      </c>
+      <c r="C20">
+        <v>50.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>50.66</v>
+      </c>
+      <c r="C21">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B7" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="C7" t="n">
-        <v>29.01</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B22">
+        <v>50.04</v>
+      </c>
+      <c r="C22">
+        <v>50.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>56.41</v>
+      </c>
+      <c r="C23">
+        <v>59.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="C9" t="n">
-        <v>47.05</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B24">
+        <v>55.1</v>
+      </c>
+      <c r="C24">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
-        <v>30.32</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B25">
+        <v>59.22</v>
+      </c>
+      <c r="C25">
+        <v>59.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>59.74</v>
+      </c>
+      <c r="C26">
+        <v>61.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>64.58</v>
+      </c>
+      <c r="C27">
+        <v>67.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B11" t="n">
-        <v>47.06</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55.89</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>61.91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>61.92</v>
-      </c>
-      <c r="C13" t="n">
-        <v>63.43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>63.44</v>
-      </c>
-      <c r="C14" t="n">
-        <v>64.83</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>64.84999999999999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>75.58</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>78.91</v>
-      </c>
-      <c r="C16" t="n">
-        <v>75.58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="B28">
+        <v>61.15</v>
+      </c>
+      <c r="C28">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="B17" t="n">
-        <v>78.92</v>
-      </c>
-      <c r="C17" t="n">
-        <v>80.83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="B29">
+        <v>62.61</v>
+      </c>
+      <c r="C29">
+        <v>64.56999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B18" t="n">
-        <v>80.84</v>
-      </c>
-      <c r="C18" t="n">
-        <v>81.94</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="B30">
+        <v>67.89</v>
+      </c>
+      <c r="C30">
+        <v>70.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="C31">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>2</v>
       </c>
-      <c r="B19" t="n">
-        <v>85.14</v>
-      </c>
-      <c r="C19" t="n">
-        <v>90.76000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="B32">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="C32">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B20" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>83.31</v>
-      </c>
-      <c r="C21" t="n">
-        <v>85.13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B33">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="C33">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="B22" t="n">
-        <v>90.77</v>
-      </c>
-      <c r="C22" t="n">
-        <v>98.52</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B34">
+        <v>80.34</v>
+      </c>
+      <c r="C34">
+        <v>81.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>81.06</v>
+      </c>
+      <c r="C35">
+        <v>85.98999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>87.22</v>
+      </c>
+      <c r="C36">
+        <v>89.04000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="B23" t="n">
-        <v>98.53</v>
-      </c>
-      <c r="C23" t="n">
-        <v>101.85</v>
+      <c r="B37">
+        <v>86.01000000000001</v>
+      </c>
+      <c r="C37">
+        <v>87.20999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>89.77</v>
+      </c>
+      <c r="C38">
+        <v>92.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>89.06</v>
+      </c>
+      <c r="C39">
+        <v>89.76000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>92.48999999999999</v>
+      </c>
+      <c r="C40">
+        <v>93.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>93.03</v>
+      </c>
+      <c r="C41">
+        <v>96.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>96.73</v>
+      </c>
+      <c r="C42">
+        <v>98.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>98.98</v>
+      </c>
+      <c r="C43">
+        <v>101.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/predict_borehole.xlsx
+++ b/predict_borehole.xlsx
@@ -405,7 +405,7 @@
         <v>0.02</v>
       </c>
       <c r="C2">
-        <v>10.51</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>10.52</v>
+        <v>11.32</v>
       </c>
       <c r="C3">
-        <v>11.07</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11.08</v>
+        <v>12.08</v>
       </c>
       <c r="C4">
-        <v>13.58</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13.59</v>
+        <v>15.5</v>
       </c>
       <c r="C5">
-        <v>16.65</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>19.76</v>
+        <v>21.66</v>
       </c>
       <c r="C6">
-        <v>25.45</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>16.67</v>
+        <v>19.69</v>
       </c>
       <c r="C7">
-        <v>17.53</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>17.54</v>
+        <v>20.25</v>
       </c>
       <c r="C8">
-        <v>18.88</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>18.89</v>
+        <v>21.11</v>
       </c>
       <c r="C9">
-        <v>19.75</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>25.46</v>
+        <v>28.22</v>
       </c>
       <c r="C10">
-        <v>27.1</v>
+        <v>30.45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -501,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>32.47</v>
+        <v>33.88</v>
       </c>
       <c r="C11">
-        <v>37.47</v>
+        <v>38.13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -512,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>27.12</v>
+        <v>30.47</v>
       </c>
       <c r="C12">
-        <v>28.17</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -523,10 +523,10 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>28.18</v>
+        <v>31.15</v>
       </c>
       <c r="C13">
-        <v>32.46</v>
+        <v>33.88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -534,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>37.49</v>
+        <v>38.15</v>
       </c>
       <c r="C14">
-        <v>38.93</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -545,10 +545,10 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>38.94</v>
+        <v>39.59</v>
       </c>
       <c r="C15">
-        <v>40.6</v>
+        <v>41.85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -556,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>41.62</v>
+        <v>42.51</v>
       </c>
       <c r="C16">
-        <v>44.9</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -567,10 +567,10 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>40.62</v>
+        <v>41.87</v>
       </c>
       <c r="C17">
-        <v>41.61</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -578,10 +578,10 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>44.92</v>
+        <v>45.38</v>
       </c>
       <c r="C18">
-        <v>47.64</v>
+        <v>48.34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -589,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>47.65</v>
+        <v>48.36</v>
       </c>
       <c r="C19">
-        <v>48.67</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -600,10 +600,10 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>48.68</v>
+        <v>49.76</v>
       </c>
       <c r="C20">
-        <v>50.02</v>
+        <v>51.59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -611,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>50.66</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>55.08</v>
+        <v>56.13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -622,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>50.04</v>
+        <v>51.61</v>
       </c>
       <c r="C22">
-        <v>50.65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>56.41</v>
+        <v>56.99</v>
       </c>
       <c r="C23">
-        <v>59.21</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -644,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>55.1</v>
+        <v>56.15</v>
       </c>
       <c r="C24">
-        <v>56.4</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -655,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>59.22</v>
+        <v>59.4</v>
       </c>
       <c r="C25">
-        <v>59.73</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>59.74</v>
+        <v>60.1</v>
       </c>
       <c r="C26">
-        <v>61.13</v>
+        <v>60.99</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>64.58</v>
+        <v>63.48</v>
       </c>
       <c r="C27">
-        <v>67.87</v>
+        <v>67.33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -688,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>61.15</v>
+        <v>61.29</v>
       </c>
       <c r="C28">
-        <v>62.6</v>
+        <v>62.22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -699,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>62.61</v>
+        <v>62.22</v>
       </c>
       <c r="C29">
-        <v>64.56999999999999</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>67.89</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C30">
-        <v>70.69</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>70.70999999999999</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C31">
-        <v>72.7</v>
+        <v>72.65000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -732,10 +732,10 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>72.70999999999999</v>
+        <v>72.66</v>
       </c>
       <c r="C32">
-        <v>78.06</v>
+        <v>79.95</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -743,10 +743,10 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>78.06999999999999</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="C33">
-        <v>80.33</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -754,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>80.34</v>
+        <v>81.41</v>
       </c>
       <c r="C34">
-        <v>81.05</v>
+        <v>81.86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -765,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>81.06</v>
+        <v>81.87</v>
       </c>
       <c r="C35">
-        <v>85.98999999999999</v>
+        <v>85.01000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -776,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>87.22</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="C36">
-        <v>89.04000000000001</v>
+        <v>89.44</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -787,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>86.01000000000001</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="C37">
-        <v>87.20999999999999</v>
+        <v>87.76000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -798,10 +798,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>89.77</v>
+        <v>89.91</v>
       </c>
       <c r="C38">
-        <v>92.48</v>
+        <v>92.06</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -809,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>89.06</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="C39">
-        <v>89.76000000000001</v>
+        <v>89.91</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -820,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>92.48999999999999</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C40">
-        <v>93.02</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -831,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>93.03</v>
+        <v>92.81</v>
       </c>
       <c r="C41">
-        <v>96.72</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -842,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>96.73</v>
+        <v>97.84</v>
       </c>
       <c r="C42">
-        <v>98.97</v>
+        <v>99.27</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -853,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>98.98</v>
+        <v>99.28</v>
       </c>
       <c r="C43">
-        <v>101.1</v>
+        <v>100.63</v>
       </c>
     </row>
   </sheetData>
